--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201105_Econtrol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>QK vui lòng xem lại hạn dịch vụ, Nạp Lại FW</t>
+  </si>
+  <si>
+    <t>Bill TASETCO 44221904</t>
   </si>
 </sst>
 </file>
@@ -764,6 +767,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,54 +831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1190,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:I22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1210,68 +1213,68 @@
       <c r="A1" s="32"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="24"/>
       <c r="F6" s="48"/>
       <c r="G6" s="17"/>
@@ -1280,25 +1283,27 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="15"/>
       <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="49"/>
       <c r="G8" s="45"/>
       <c r="H8" s="15"/>
@@ -1306,10 +1311,10 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1322,10 +1327,10 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1381,7 +1386,7 @@
       <c r="E12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="57" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -1568,29 +1573,29 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="62" t="s">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
@@ -1637,30 +1642,37 @@
       <c r="I26" s="29"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="61" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
     </row>
     <row r="70" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B7:C7"/>
@@ -1670,13 +1682,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
